--- a/smartcodelab-datasets/Leet-Code-Coding-Exercises.xlsx
+++ b/smartcodelab-datasets/Leet-Code-Coding-Exercises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magno\OneDrive\Desktop\Capstone 2\2025-CP_SMARTCODELAB\smartcodelab-datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1450952E-44FB-46AC-88A0-36F80F8315B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B116D7B-D55B-4944-B36D-CCD9951E8C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F35562E-2E5D-4498-AD88-C23B936C7692}"/>
   </bookViews>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA7E1AC-7BCA-4ED8-BBE5-16F5F9CB4936}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
